--- a/monitor_xlsx/20260202.xlsx
+++ b/monitor_xlsx/20260202.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="總覽" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="詳細數據" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="個股籌碼" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,8 +38,18 @@
       <b val="1"/>
       <sz val="14"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="00008000"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -49,6 +60,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00CCCCCC"/>
         <bgColor rgb="00CCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -64,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -74,6 +91,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -545,12 +567,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4841.9$</t>
+          <t>4622.5$</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+2.72%</t>
+          <t>-1.94%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -655,22 +677,22 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-58.15億</t>
+          <t>41.34億</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-290.76億</t>
+          <t>206.71億</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-21.83億</t>
+          <t>-0.03億</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-436.54億</t>
+          <t>-0.58億</t>
         </is>
       </c>
     </row>
@@ -717,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>109.2%</t>
+          <t>131.55%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>109.2%</t>
+          <t>131.55%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -807,12 +829,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-18.39億</t>
+          <t>-18.04億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-367.89億</t>
+          <t>-360.75億</t>
         </is>
       </c>
     </row>
@@ -864,7 +886,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-58.15億</t>
+          <t>41.34億</t>
         </is>
       </c>
     </row>
@@ -876,7 +898,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-290.76億</t>
+          <t>206.71億</t>
         </is>
       </c>
     </row>
@@ -888,7 +910,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-21.83億</t>
+          <t>-0.03億</t>
         </is>
       </c>
     </row>
@@ -900,7 +922,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-436.54億</t>
+          <t>-0.58億</t>
         </is>
       </c>
     </row>
@@ -971,7 +993,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-18.39億</t>
+          <t>-18.04億</t>
         </is>
       </c>
     </row>
@@ -983,7 +1005,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-367.89億</t>
+          <t>-360.75億</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>109.2%</t>
+          <t>131.55%</t>
         </is>
       </c>
     </row>
@@ -1021,4 +1043,907 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>個股籌碼監控報告 - 20260202</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>股票代號</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>股票名稱</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>收盤價</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>漲跌幅(%)</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>成交量(張)</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>外資當日(張)</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>外資5日累計</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>投信當日(張)</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>投信5日累計</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>自營商當日(張)</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>融資增減(張)</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>融資5日累計</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>借券增減(張)</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>MA20乖離(%)</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>籌碼評價</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="E4" t="n">
+        <v>234325</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>-79109</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-82964</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1995</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3906</v>
+      </c>
+      <c r="J4" t="n">
+        <v>51667</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7914</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35413</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-3992857</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>00708L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S&amp;P黃金正2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2082</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-150</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12764</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9542</v>
+      </c>
+      <c r="L5" t="n">
+        <v>43453</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-26107</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1519</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>華城</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>942</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3699</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>692</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1537</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-168</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-392</v>
+      </c>
+      <c r="J6" t="n">
+        <v>105</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2592</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13854</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-78703</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-6.92</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>華新</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>39.15</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>184489</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>-32533</v>
+      </c>
+      <c r="G7" t="n">
+        <v>38310</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-717</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22517</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7793</v>
+      </c>
+      <c r="K7" t="n">
+        <v>74441</v>
+      </c>
+      <c r="L7" t="n">
+        <v>403415</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1104894</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-7.36</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>台達電</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-3.69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13451</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>299</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-2703</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1025</v>
+      </c>
+      <c r="I8" t="n">
+        <v>895</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1362</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6139</v>
+      </c>
+      <c r="L8" t="n">
+        <v>36956</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-648632</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>台積電</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1765</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33342</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>-9845</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-11936</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2045</v>
+      </c>
+      <c r="I9" t="n">
+        <v>446</v>
+      </c>
+      <c r="J9" t="n">
+        <v>728</v>
+      </c>
+      <c r="K9" t="n">
+        <v>20777</v>
+      </c>
+      <c r="L9" t="n">
+        <v>100623</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6482860</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2344</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>華邦電</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>116</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>-9.73</v>
+      </c>
+      <c r="E10" t="n">
+        <v>166067</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>-22353</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-51130</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-7529</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23972</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1672</v>
+      </c>
+      <c r="K10" t="n">
+        <v>140445</v>
+      </c>
+      <c r="L10" t="n">
+        <v>737583</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1102145</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>台光電</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1785</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3863</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>186</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1151</v>
+      </c>
+      <c r="H11" t="n">
+        <v>610</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-749</v>
+      </c>
+      <c r="J11" t="n">
+        <v>84</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1971</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-89484</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>世芯-KY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3140</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>-236</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1917</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-54</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-96</v>
+      </c>
+      <c r="J12" t="n">
+        <v>132</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6041</v>
+      </c>
+      <c r="L12" t="n">
+        <v>29371</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-19725</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-6.07</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>主力積極賣出</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>臻鼎-KY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-6.14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>63369</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>2365</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2834</v>
+      </c>
+      <c r="H13" t="n">
+        <v>347</v>
+      </c>
+      <c r="I13" t="n">
+        <v>229</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2168</v>
+      </c>
+      <c r="K13" t="n">
+        <v>31036</v>
+      </c>
+      <c r="L13" t="n">
+        <v>132560</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-267370</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6442</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>光聖</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4004</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2487</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-165</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>84</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4161</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24397</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-19215</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>聯亞</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>903</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>340</v>
+      </c>
+      <c r="G15" t="n">
+        <v>789</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-28</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1041</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-199</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-819</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>主力積極買進</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>威剛</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>-5.59</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23943</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>2145</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-9696</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1141</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1121</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-317</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1022</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1257</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3265</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>台新科</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>136</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1285</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>890</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-43</v>
+      </c>
+      <c r="I17" t="n">
+        <v>755</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-37</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-230</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>華星光</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>314</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="E18" t="n">
+        <v>29576</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>393</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>920</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5290</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" t="n">
+        <v>104</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-3451</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>主力積極買進</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/monitor_xlsx/20260202.xlsx
+++ b/monitor_xlsx/20260202.xlsx
@@ -677,22 +677,22 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>41.34億</t>
+          <t>-58.15億</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>206.71億</t>
+          <t>-290.76億</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.03億</t>
+          <t>-21.83億</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-0.58億</t>
+          <t>-436.54億</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-18.04億</t>
+          <t>-18.39億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-360.75億</t>
+          <t>-367.89億</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>41.34億</t>
+          <t>-58.15億</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>206.71億</t>
+          <t>-290.76億</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.03億</t>
+          <t>-21.83億</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.58億</t>
+          <t>-436.54億</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-18.04億</t>
+          <t>-18.39億</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-360.75億</t>
+          <t>-367.89億</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1074,13 @@
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1159,6 +1166,41 @@
           <t>籌碼評價</t>
         </is>
       </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>買賣券商差</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>籌碼集中度5D(%)</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>借券賣出餘額</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>短回補天數</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP20D</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP乖離(%)</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>資料來源</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1212,6 +1254,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>137857000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T4" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1253,6 +1318,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1998000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T5" t="n">
+        <v>114.59</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1306,6 +1394,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P6" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>-5.23</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3543000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="T6" t="n">
+        <v>927.5700000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1359,6 +1470,29 @@
           <t>偏多</t>
         </is>
       </c>
+      <c r="P7" t="n">
+        <v>-14</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>-9.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>175067918</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="T7" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-4.74</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1412,6 +1546,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P8" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2189680</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1139.35</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1465,6 +1622,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P9" t="n">
+        <v>-29</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1553680</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1733.7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1518,6 +1698,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>30740000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T10" t="n">
+        <v>113.78</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1571,6 +1774,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P11" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="7" t="n">
+        <v>-6.69</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1817528</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1673.6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1624,6 +1850,29 @@
           <t>主力積極賣出</t>
         </is>
       </c>
+      <c r="P12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5343503</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3448.6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1677,6 +1926,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P13" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="R13" t="n">
+        <v>21769945</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T13" t="n">
+        <v>172.49</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1730,6 +2002,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P14" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1868000</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1432.35</v>
+      </c>
+      <c r="U14" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1783,6 +2078,29 @@
           <t>主力積極買進</t>
         </is>
       </c>
+      <c r="P15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2209400</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T15" t="n">
+        <v>767.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1836,6 +2154,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7790640</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>335.18</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-6.77</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1886,6 +2227,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P17" t="n">
+        <v>-17</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2204000</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T17" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1937,6 +2301,105 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>主力積極買進</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>-44</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11417993</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T18" t="n">
+        <v>302.34</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>景碩</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-4.96</v>
+      </c>
+      <c r="E19" t="n">
+        <v>44449</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>-162</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-6396</v>
+      </c>
+      <c r="H19" t="n">
+        <v>998</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5396</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1017</v>
+      </c>
+      <c r="K19" t="n">
+        <v>31802</v>
+      </c>
+      <c r="L19" t="n">
+        <v>154717</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-113723</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="R19" t="n">
+        <v>10991826</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T19" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
